--- a/Year2/Project1/BEAGLE_dust_install/analysis/pick_a_peak/from_emma/Visual inspection for pick-a-peak.xlsx
+++ b/Year2/Project1/BEAGLE_dust_install/analysis/pick_a_peak/from_emma/Visual inspection for pick-a-peak.xlsx
@@ -1,12 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lester/Documents/GitHub/Local-Python/Year2/Project1/BEAGLE_dust_install/analysis/pick_a_peak/from_emma/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C27ADD2-2FE8-E64C-BC54-2F22C0CE5966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="740" yWindow="460" windowWidth="32860" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -370,23 +394,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -396,7 +422,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -424,50 +450,45 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -657,20 +678,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P74"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,15 +717,15 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>716.0</v>
+        <v>716</v>
       </c>
       <c r="B2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -711,16 +737,29 @@
         <v>8</v>
       </c>
       <c r="G2" s="2"/>
-    </row>
-    <row r="3">
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f>SUM(M2:O2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>1290.0</v>
+        <v>1290</v>
       </c>
       <c r="B3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -732,16 +771,29 @@
         <v>11</v>
       </c>
       <c r="G3" s="2"/>
-    </row>
-    <row r="4">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>SUM(M3:O3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>1388.0</v>
+        <v>1388</v>
       </c>
       <c r="B4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -753,16 +805,29 @@
         <v>13</v>
       </c>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5">
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f>SUM(M4:O4)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>1449.0</v>
+        <v>1449</v>
       </c>
       <c r="B5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -774,16 +839,29 @@
         <v>15</v>
       </c>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6">
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <f>SUM(M5:O5)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>1464.0</v>
+        <v>1464</v>
       </c>
       <c r="B6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -793,16 +871,29 @@
         <v>16</v>
       </c>
       <c r="G6" s="2"/>
-    </row>
-    <row r="7">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f>SUM(M6:O6)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>1578.0</v>
+        <v>1578</v>
       </c>
       <c r="B7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
@@ -814,16 +905,29 @@
         <v>18</v>
       </c>
       <c r="G7" s="2"/>
-    </row>
-    <row r="8">
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <f>SUM(M7:O7)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>1748.0</v>
+        <v>1748</v>
       </c>
       <c r="B8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
@@ -835,16 +939,29 @@
         <v>20</v>
       </c>
       <c r="G8" s="2"/>
-    </row>
-    <row r="9">
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f>SUM(M8:O8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>21</v>
@@ -856,16 +973,29 @@
         <v>23</v>
       </c>
       <c r="G9" s="2"/>
-    </row>
-    <row r="10">
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f>SUM(M9:O9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>2035.0</v>
+        <v>2035</v>
       </c>
       <c r="B10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C10" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
@@ -874,16 +1004,29 @@
         <v>24</v>
       </c>
       <c r="G10" s="2"/>
-    </row>
-    <row r="11">
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f>SUM(M10:O10)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>213.0</v>
+        <v>213</v>
       </c>
       <c r="B11" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>6</v>
@@ -893,16 +1036,29 @@
         <v>25</v>
       </c>
       <c r="G11" s="2"/>
-    </row>
-    <row r="12">
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <f>SUM(M11:O11)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>343.0</v>
+        <v>343</v>
       </c>
       <c r="B12" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>26</v>
@@ -912,16 +1068,29 @@
         <v>27</v>
       </c>
       <c r="G12" s="2"/>
-    </row>
-    <row r="13">
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <f>SUM(M12:O12)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>542.0</v>
+        <v>542</v>
       </c>
       <c r="B13" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>28</v>
@@ -933,16 +1102,29 @@
         <v>30</v>
       </c>
       <c r="G13" s="2"/>
-    </row>
-    <row r="14">
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f>SUM(M13:O13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>720.0</v>
+        <v>720</v>
       </c>
       <c r="B14" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
@@ -954,16 +1136,29 @@
         <v>32</v>
       </c>
       <c r="G14" s="2"/>
-    </row>
-    <row r="15">
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f>SUM(M14:O14)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>804.0</v>
+        <v>804</v>
       </c>
       <c r="B15" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="5" t="s">
@@ -973,16 +1168,23 @@
         <v>34</v>
       </c>
       <c r="G15" s="2"/>
-    </row>
-    <row r="16">
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f>SUM(M15:O15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>805.0</v>
+        <v>805</v>
       </c>
       <c r="B16" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>9</v>
@@ -992,16 +1194,29 @@
         <v>35</v>
       </c>
       <c r="G16" s="2"/>
-    </row>
-    <row r="17">
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f>SUM(M16:O16)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>810.0</v>
+        <v>810</v>
       </c>
       <c r="B17" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>21</v>
@@ -1013,16 +1228,29 @@
         <v>37</v>
       </c>
       <c r="G17" s="2"/>
-    </row>
-    <row r="18">
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f>SUM(M17:O17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>1049.0</v>
+        <v>1049</v>
       </c>
       <c r="B18" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>26</v>
@@ -1032,16 +1260,29 @@
         <v>38</v>
       </c>
       <c r="G18" s="2"/>
-    </row>
-    <row r="19">
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <f>SUM(M18:O18)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>1196.0</v>
+        <v>1196</v>
       </c>
       <c r="B19" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>26</v>
@@ -1053,16 +1294,29 @@
         <v>40</v>
       </c>
       <c r="G19" s="2"/>
-    </row>
-    <row r="20">
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <f>SUM(M19:O19)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>1397.0</v>
+        <v>1397</v>
       </c>
       <c r="B20" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>26</v>
@@ -1074,16 +1328,29 @@
         <v>42</v>
       </c>
       <c r="G20" s="2"/>
-    </row>
-    <row r="21">
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <f>SUM(M20:O20)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>1782.0</v>
+        <v>1782</v>
       </c>
       <c r="B21" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>9</v>
@@ -1095,16 +1362,29 @@
         <v>44</v>
       </c>
       <c r="G21" s="2"/>
-    </row>
-    <row r="22">
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f>SUM(M21:O21)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>1858.0</v>
+        <v>1858</v>
       </c>
       <c r="B22" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C22" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>6</v>
@@ -1114,16 +1394,29 @@
         <v>45</v>
       </c>
       <c r="G22" s="2"/>
-    </row>
-    <row r="23">
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <f>SUM(M22:O22)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="B23" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C23" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>26</v>
@@ -1135,16 +1428,29 @@
         <v>47</v>
       </c>
       <c r="G23" s="2"/>
-    </row>
-    <row r="24">
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <f>SUM(M23:O23)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>288.0</v>
+        <v>288</v>
       </c>
       <c r="B24" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C24" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>26</v>
@@ -1156,16 +1462,29 @@
         <v>49</v>
       </c>
       <c r="G24" s="2"/>
-    </row>
-    <row r="25">
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <f>SUM(M24:O24)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>307.0</v>
+        <v>307</v>
       </c>
       <c r="B25" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C25" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>26</v>
@@ -1175,16 +1494,29 @@
         <v>50</v>
       </c>
       <c r="G25" s="2"/>
-    </row>
-    <row r="26">
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <f>SUM(M25:O25)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>357.0</v>
+        <v>357</v>
       </c>
       <c r="B26" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C26" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>9</v>
@@ -1194,16 +1526,29 @@
         <v>51</v>
       </c>
       <c r="G26" s="2"/>
-    </row>
-    <row r="27">
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f>SUM(M26:O26)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>619.0</v>
+        <v>619</v>
       </c>
       <c r="B27" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C27" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>6</v>
@@ -1213,16 +1558,29 @@
         <v>52</v>
       </c>
       <c r="G27" s="2"/>
-    </row>
-    <row r="28">
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <f>SUM(M27:O27)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>647.0</v>
+        <v>647</v>
       </c>
       <c r="B28" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C28" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>26</v>
@@ -1232,16 +1590,29 @@
         <v>53</v>
       </c>
       <c r="G28" s="2"/>
-    </row>
-    <row r="29">
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <f>SUM(M28:O28)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>701.0</v>
+        <v>701</v>
       </c>
       <c r="B29" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C29" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>9</v>
@@ -1251,16 +1622,29 @@
         <v>54</v>
       </c>
       <c r="G29" s="2"/>
-    </row>
-    <row r="30">
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f>SUM(M29:O29)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>909.0</v>
+        <v>909</v>
       </c>
       <c r="B30" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C30" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>9</v>
@@ -1270,16 +1654,29 @@
         <v>55</v>
       </c>
       <c r="G30" s="2"/>
-    </row>
-    <row r="31">
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f>SUM(M30:O30)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>981.0</v>
+        <v>981</v>
       </c>
       <c r="B31" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C31" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>21</v>
@@ -1291,16 +1688,29 @@
         <v>57</v>
       </c>
       <c r="G31" s="2"/>
-    </row>
-    <row r="32">
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f>SUM(M31:O31)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>1063.0</v>
+        <v>1063</v>
       </c>
       <c r="B32" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C32" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>6</v>
@@ -1310,16 +1720,29 @@
         <v>58</v>
       </c>
       <c r="G32" s="2"/>
-    </row>
-    <row r="33">
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <f>SUM(M32:O32)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>1090.0</v>
+        <v>1090</v>
       </c>
       <c r="B33" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C33" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>9</v>
@@ -1329,16 +1752,29 @@
         <v>59</v>
       </c>
       <c r="G33" s="2"/>
-    </row>
-    <row r="34">
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f>SUM(M33:O33)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>1092.0</v>
+        <v>1092</v>
       </c>
       <c r="B34" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C34" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>28</v>
@@ -1350,16 +1786,29 @@
         <v>61</v>
       </c>
       <c r="G34" s="2"/>
-    </row>
-    <row r="35">
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f>SUM(M34:O34)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7">
-        <v>1093.0</v>
+        <v>1093</v>
       </c>
       <c r="B35" s="7">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C35" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>21</v>
@@ -1369,16 +1818,29 @@
         <v>62</v>
       </c>
       <c r="G35" s="2"/>
-    </row>
-    <row r="36">
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f>SUM(M35:O35)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>1178.0</v>
+        <v>1178</v>
       </c>
       <c r="B36" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C36" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>9</v>
@@ -1388,16 +1850,29 @@
         <v>63</v>
       </c>
       <c r="G36" s="2"/>
-    </row>
-    <row r="37">
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f>SUM(M36:O36)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>1265.0</v>
+        <v>1265</v>
       </c>
       <c r="B37" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C37" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>6</v>
@@ -1407,16 +1882,29 @@
         <v>64</v>
       </c>
       <c r="G37" s="2"/>
-    </row>
-    <row r="38">
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <f>SUM(M37:O37)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>1268.0</v>
+        <v>1268</v>
       </c>
       <c r="B38" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C38" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>26</v>
@@ -1428,16 +1916,29 @@
         <v>66</v>
       </c>
       <c r="G38" s="2"/>
-    </row>
-    <row r="39">
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <f>SUM(M38:O38)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>1283.0</v>
+        <v>1283</v>
       </c>
       <c r="B39" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C39" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>9</v>
@@ -1447,16 +1948,29 @@
         <v>67</v>
       </c>
       <c r="G39" s="2"/>
-    </row>
-    <row r="40">
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f>SUM(M39:O39)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>1289.0</v>
+        <v>1289</v>
       </c>
       <c r="B40" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C40" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>26</v>
@@ -1466,16 +1980,29 @@
         <v>68</v>
       </c>
       <c r="G40" s="2"/>
-    </row>
-    <row r="41">
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <f>SUM(M40:O40)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>1357.0</v>
+        <v>1357</v>
       </c>
       <c r="B41" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C41" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="5" t="s">
@@ -1485,16 +2012,23 @@
         <v>70</v>
       </c>
       <c r="G41" s="2"/>
-    </row>
-    <row r="42">
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f>SUM(M41:O41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>1504.0</v>
+        <v>1504</v>
       </c>
       <c r="B42" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C42" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>26</v>
@@ -1504,16 +2038,29 @@
         <v>71</v>
       </c>
       <c r="G42" s="2"/>
-    </row>
-    <row r="43">
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <f>SUM(M42:O42)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
-        <v>1528.0</v>
+        <v>1528</v>
       </c>
       <c r="B43" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C43" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>9</v>
@@ -1525,16 +2072,29 @@
         <v>73</v>
       </c>
       <c r="G43" s="2"/>
-    </row>
-    <row r="44">
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f>SUM(M43:O43)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <v>1529.0</v>
+        <v>1529</v>
       </c>
       <c r="B44" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C44" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>9</v>
@@ -1544,16 +2104,29 @@
         <v>74</v>
       </c>
       <c r="G44" s="2"/>
-    </row>
-    <row r="45">
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f>SUM(M44:O44)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <v>1570.0</v>
+        <v>1570</v>
       </c>
       <c r="B45" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C45" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="5" t="s">
@@ -1563,16 +2136,23 @@
         <v>75</v>
       </c>
       <c r="G45" s="2"/>
-    </row>
-    <row r="46">
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f>SUM(M45:O45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
-        <v>1652.0</v>
+        <v>1652</v>
       </c>
       <c r="B46" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C46" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>6</v>
@@ -1584,16 +2164,29 @@
         <v>77</v>
       </c>
       <c r="G46" s="2"/>
-    </row>
-    <row r="47">
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <f>SUM(M46:O46)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
-        <v>1748.0</v>
+        <v>1748</v>
       </c>
       <c r="B47" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C47" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>6</v>
@@ -1603,16 +2196,29 @@
         <v>78</v>
       </c>
       <c r="G47" s="2"/>
-    </row>
-    <row r="48">
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <f>SUM(M47:O47)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
-        <v>1796.0</v>
+        <v>1796</v>
       </c>
       <c r="B48" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C48" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>26</v>
@@ -1624,16 +2230,29 @@
         <v>80</v>
       </c>
       <c r="G48" s="2"/>
-    </row>
-    <row r="49">
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <f>SUM(M48:O48)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
-        <v>1797.0</v>
+        <v>1797</v>
       </c>
       <c r="B49" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C49" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>9</v>
@@ -1643,16 +2262,29 @@
         <v>81</v>
       </c>
       <c r="G49" s="2"/>
-    </row>
-    <row r="50">
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f>SUM(M49:O49)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
-        <v>1835.0</v>
+        <v>1835</v>
       </c>
       <c r="B50" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C50" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>9</v>
@@ -1662,16 +2294,29 @@
         <v>82</v>
       </c>
       <c r="G50" s="2"/>
-    </row>
-    <row r="51">
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f>SUM(M50:O50)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
-        <v>1847.0</v>
+        <v>1847</v>
       </c>
       <c r="B51" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C51" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>28</v>
@@ -1681,16 +2326,29 @@
         <v>83</v>
       </c>
       <c r="G51" s="2"/>
-    </row>
-    <row r="52">
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <f>SUM(M51:O51)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
-        <v>1849.0</v>
+        <v>1849</v>
       </c>
       <c r="B52" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C52" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>84</v>
@@ -1702,16 +2360,29 @@
         <v>86</v>
       </c>
       <c r="G52" s="2"/>
-    </row>
-    <row r="53">
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <f>SUM(M52:O52)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
-        <v>1948.0</v>
+        <v>1948</v>
       </c>
       <c r="B53" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C53" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>6</v>
@@ -1721,16 +2392,29 @@
         <v>87</v>
       </c>
       <c r="G53" s="2"/>
-    </row>
-    <row r="54">
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <f>SUM(M53:O53)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
-        <v>1960.0</v>
+        <v>1960</v>
       </c>
       <c r="B54" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C54" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>9</v>
@@ -1740,16 +2424,29 @@
         <v>88</v>
       </c>
       <c r="G54" s="2"/>
-    </row>
-    <row r="55">
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <f>SUM(M54:O54)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
-        <v>2008.0</v>
+        <v>2008</v>
       </c>
       <c r="B55" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C55" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>89</v>
@@ -1761,16 +2458,29 @@
         <v>91</v>
       </c>
       <c r="G55" s="2"/>
-    </row>
-    <row r="56">
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <f>SUM(M55:O55)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
-        <v>2030.0</v>
+        <v>2030</v>
       </c>
       <c r="B56" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C56" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>84</v>
@@ -1780,16 +2490,29 @@
         <v>92</v>
       </c>
       <c r="G56" s="2"/>
-    </row>
-    <row r="57">
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <f>SUM(M56:O56)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
-        <v>2093.0</v>
+        <v>2093</v>
       </c>
       <c r="B57" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C57" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>6</v>
@@ -1799,16 +2522,29 @@
         <v>93</v>
       </c>
       <c r="G57" s="2"/>
-    </row>
-    <row r="58">
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <f>SUM(M57:O57)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
-        <v>2095.0</v>
+        <v>2095</v>
       </c>
       <c r="B58" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C58" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>6</v>
@@ -1818,16 +2554,29 @@
         <v>94</v>
       </c>
       <c r="G58" s="2"/>
-    </row>
-    <row r="59">
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="P58">
+        <f>SUM(M58:O58)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
-        <v>2149.0</v>
+        <v>2149</v>
       </c>
       <c r="B59" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C59" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>26</v>
@@ -1837,16 +2586,29 @@
         <v>95</v>
       </c>
       <c r="G59" s="2"/>
-    </row>
-    <row r="60">
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <f>SUM(M59:O59)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
-        <v>2164.0</v>
+        <v>2164</v>
       </c>
       <c r="B60" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C60" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>21</v>
@@ -1858,16 +2620,29 @@
         <v>97</v>
       </c>
       <c r="G60" s="2"/>
-    </row>
-    <row r="61">
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <f>SUM(M60:O60)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
-        <v>2456.0</v>
+        <v>2456</v>
       </c>
       <c r="B61" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C61" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>6</v>
@@ -1879,16 +2654,29 @@
         <v>99</v>
       </c>
       <c r="G61" s="2"/>
-    </row>
-    <row r="62">
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <f>SUM(M61:O61)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
-        <v>2496.0</v>
+        <v>2496</v>
       </c>
       <c r="B62" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C62" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>6</v>
@@ -1898,16 +2686,29 @@
         <v>100</v>
       </c>
       <c r="G62" s="2"/>
-    </row>
-    <row r="63">
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <f>SUM(M62:O62)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
-        <v>2840.0</v>
+        <v>2840</v>
       </c>
       <c r="B63" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C63" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>26</v>
@@ -1917,16 +2718,29 @@
         <v>101</v>
       </c>
       <c r="G63" s="2"/>
-    </row>
-    <row r="64">
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <f>SUM(M63:O63)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B64" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C64" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>26</v>
@@ -1938,16 +2752,29 @@
         <v>103</v>
       </c>
       <c r="G64" s="2"/>
-    </row>
-    <row r="65">
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64">
+        <f>SUM(M64:O64)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
-        <v>144.0</v>
+        <v>144</v>
       </c>
       <c r="B65" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C65" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>6</v>
@@ -1957,16 +2784,29 @@
         <v>104</v>
       </c>
       <c r="G65" s="2"/>
-    </row>
-    <row r="66">
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <f>SUM(M65:O65)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
-        <v>193.0</v>
+        <v>193</v>
       </c>
       <c r="B66" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C66" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>9</v>
@@ -1976,16 +2816,29 @@
         <v>105</v>
       </c>
       <c r="G66" s="2"/>
-    </row>
-    <row r="67">
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <f>SUM(M66:O66)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
-        <v>260.0</v>
+        <v>260</v>
       </c>
       <c r="B67" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C67" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>6</v>
@@ -1997,16 +2850,29 @@
         <v>107</v>
       </c>
       <c r="G67" s="2"/>
-    </row>
-    <row r="68">
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <f>SUM(M67:O67)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
-        <v>426.0</v>
+        <v>426</v>
       </c>
       <c r="B68" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C68" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>89</v>
@@ -2016,16 +2882,29 @@
         <v>108</v>
       </c>
       <c r="G68" s="2"/>
-    </row>
-    <row r="69">
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <f>SUM(M68:O68)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
-        <v>438.0</v>
+        <v>438</v>
       </c>
       <c r="B69" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C69" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="5" t="s">
@@ -2035,16 +2914,23 @@
         <v>110</v>
       </c>
       <c r="G69" s="2"/>
-    </row>
-    <row r="70">
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <f>SUM(M69:O69)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
-        <v>826.0</v>
+        <v>826</v>
       </c>
       <c r="B70" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C70" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>9</v>
@@ -2054,16 +2940,29 @@
         <v>111</v>
       </c>
       <c r="G70" s="2"/>
-    </row>
-    <row r="71">
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <f>SUM(M70:O70)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
-        <v>1219.0</v>
+        <v>1219</v>
       </c>
       <c r="B71" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C71" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>6</v>
@@ -2073,16 +2972,29 @@
         <v>112</v>
       </c>
       <c r="G71" s="2"/>
-    </row>
-    <row r="72">
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <f>SUM(M71:O71)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
-        <v>1599.0</v>
+        <v>1599</v>
       </c>
       <c r="B72" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C72" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="5" t="s">
@@ -2092,16 +3004,23 @@
         <v>114</v>
       </c>
       <c r="G72" s="2"/>
-    </row>
-    <row r="73">
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <f>SUM(M72:O72)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>1919.0</v>
+        <v>1919</v>
       </c>
       <c r="B73" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C73" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="5" t="s">
@@ -2111,16 +3030,23 @@
         <v>116</v>
       </c>
       <c r="G73" s="2"/>
-    </row>
-    <row r="74">
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <f>SUM(M73:O73)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
-        <v>2491.0</v>
+        <v>2491</v>
       </c>
       <c r="B74" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C74" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>26</v>
@@ -2130,8 +3056,22 @@
         <v>117</v>
       </c>
       <c r="G74" s="2"/>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <f>SUM(M74:O74)</f>
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>